--- a/uploads/personName.xlsx
+++ b/uploads/personName.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonter\Documents\workspaces\Web-Forensic\The-Real-API\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E616830-6E13-47AB-86C8-7B22ED46F56C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7571E5D-3602-4D2E-9FE9-3DDF560CEFCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9EFF0D50-5A4D-416F-8B2A-F38FD4951C08}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>THAILAND</t>
   </si>
@@ -54,6 +54,27 @@
   </si>
   <si>
     <t>thai</t>
+  </si>
+  <si>
+    <t>0124G</t>
+  </si>
+  <si>
+    <t>0125G</t>
+  </si>
+  <si>
+    <t>Kelle</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -405,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19A1F8-175A-4358-913F-62A3A7235594}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +472,76 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1234812321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1234812171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
